--- a/data/raw/election/voters-age-sex-education/2023/Kahramanmaraş.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kahramanmaraş.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:45:02-19166804061" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="40">
   <si>
     <t>Kahramanmaraş</t>
   </si>
@@ -134,6 +133,12 @@
   </si>
   <si>
     <t>Türkoğlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -681,16 +686,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,10 +1029,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:N292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:C292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,52 +1048,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1136,8 +1150,8 @@
       <c r="G6" s="4">
         <v>911</v>
       </c>
-      <c r="H6" s="4">
-        <v>2.99</v>
+      <c r="H6" s="5">
+        <v>2990</v>
       </c>
       <c r="I6" s="4">
         <v>505</v>
@@ -1151,8 +1165,8 @@
       <c r="L6" s="4">
         <v>33</v>
       </c>
-      <c r="M6" s="5">
-        <v>4.4880000000000004</v>
+      <c r="M6" s="6">
+        <v>4488</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1175,8 +1189,8 @@
       <c r="G7" s="4">
         <v>974</v>
       </c>
-      <c r="H7" s="4">
-        <v>2.6030000000000002</v>
+      <c r="H7" s="5">
+        <v>2603</v>
       </c>
       <c r="I7" s="4">
         <v>685</v>
@@ -1190,8 +1204,8 @@
       <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" s="5">
-        <v>4.3239999999999998</v>
+      <c r="M7" s="6">
+        <v>4324</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1216,8 +1230,8 @@
       <c r="G8" s="4">
         <v>563</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.0509999999999999</v>
+      <c r="H8" s="5">
+        <v>1051</v>
       </c>
       <c r="I8" s="4">
         <v>765</v>
@@ -1231,8 +1245,8 @@
       <c r="L8" s="4">
         <v>19</v>
       </c>
-      <c r="M8" s="5">
-        <v>2.5059999999999998</v>
+      <c r="M8" s="6">
+        <v>2506</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1270,8 +1284,8 @@
       <c r="L9" s="4">
         <v>15</v>
       </c>
-      <c r="M9" s="5">
-        <v>2.391</v>
+      <c r="M9" s="6">
+        <v>2391</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,8 +1325,8 @@
       <c r="L10" s="4">
         <v>14</v>
       </c>
-      <c r="M10" s="5">
-        <v>2.246</v>
+      <c r="M10" s="6">
+        <v>2246</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1350,8 +1364,8 @@
       <c r="L11" s="4">
         <v>20</v>
       </c>
-      <c r="M11" s="5">
-        <v>2.29</v>
+      <c r="M11" s="6">
+        <v>2290</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,8 +1390,8 @@
       <c r="G12" s="4">
         <v>245</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.2509999999999999</v>
+      <c r="H12" s="5">
+        <v>1251</v>
       </c>
       <c r="I12" s="4">
         <v>486</v>
@@ -1391,8 +1405,8 @@
       <c r="L12" s="4">
         <v>27</v>
       </c>
-      <c r="M12" s="5">
-        <v>2.6179999999999999</v>
+      <c r="M12" s="6">
+        <v>2618</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1430,8 +1444,8 @@
       <c r="L13" s="4">
         <v>15</v>
       </c>
-      <c r="M13" s="5">
-        <v>2.2810000000000001</v>
+      <c r="M13" s="6">
+        <v>2281</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1456,8 +1470,8 @@
       <c r="G14" s="4">
         <v>446</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.3049999999999999</v>
+      <c r="H14" s="5">
+        <v>1305</v>
       </c>
       <c r="I14" s="4">
         <v>368</v>
@@ -1471,8 +1485,8 @@
       <c r="L14" s="4">
         <v>27</v>
       </c>
-      <c r="M14" s="5">
-        <v>2.7090000000000001</v>
+      <c r="M14" s="6">
+        <v>2709</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1510,8 +1524,8 @@
       <c r="L15" s="4">
         <v>19</v>
       </c>
-      <c r="M15" s="5">
-        <v>2.4089999999999998</v>
+      <c r="M15" s="6">
+        <v>2409</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1536,8 +1550,8 @@
       <c r="G16" s="4">
         <v>475</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.0309999999999999</v>
+      <c r="H16" s="5">
+        <v>1031</v>
       </c>
       <c r="I16" s="4">
         <v>296</v>
@@ -1551,8 +1565,8 @@
       <c r="L16" s="4">
         <v>21</v>
       </c>
-      <c r="M16" s="5">
-        <v>2.4390000000000001</v>
+      <c r="M16" s="6">
+        <v>2439</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1590,8 +1604,8 @@
       <c r="L17" s="4">
         <v>21</v>
       </c>
-      <c r="M17" s="5">
-        <v>2.1040000000000001</v>
+      <c r="M17" s="6">
+        <v>2104</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1631,8 +1645,8 @@
       <c r="L18" s="4">
         <v>23</v>
       </c>
-      <c r="M18" s="5">
-        <v>2.391</v>
+      <c r="M18" s="6">
+        <v>2391</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1646,8 +1660,8 @@
       <c r="D19" s="4">
         <v>89</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.1259999999999999</v>
+      <c r="E19" s="5">
+        <v>1126</v>
       </c>
       <c r="F19" s="4">
         <v>317</v>
@@ -1670,8 +1684,8 @@
       <c r="L19" s="4">
         <v>24</v>
       </c>
-      <c r="M19" s="5">
-        <v>2.2709999999999999</v>
+      <c r="M19" s="6">
+        <v>2271</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1711,8 +1725,8 @@
       <c r="L20" s="4">
         <v>37</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.9810000000000001</v>
+      <c r="M20" s="6">
+        <v>1981</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1750,8 +1764,8 @@
       <c r="L21" s="4">
         <v>36</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.879</v>
+      <c r="M21" s="6">
+        <v>1879</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1791,8 +1805,8 @@
       <c r="L22" s="4">
         <v>33</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.748</v>
+      <c r="M22" s="6">
+        <v>1748</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1830,8 +1844,8 @@
       <c r="L23" s="4">
         <v>22</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.67</v>
+      <c r="M23" s="6">
+        <v>1670</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1871,8 +1885,8 @@
       <c r="L24" s="4">
         <v>28</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.3540000000000001</v>
+      <c r="M24" s="6">
+        <v>1354</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1910,8 +1924,8 @@
       <c r="L25" s="4">
         <v>37</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.405</v>
+      <c r="M25" s="6">
+        <v>1405</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1951,8 +1965,8 @@
       <c r="L26" s="4">
         <v>17</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.0660000000000001</v>
+      <c r="M26" s="6">
+        <v>1066</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1990,8 +2004,8 @@
       <c r="L27" s="4">
         <v>26</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.1100000000000001</v>
+      <c r="M27" s="6">
+        <v>1110</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2031,8 +2045,8 @@
       <c r="L28" s="4">
         <v>36</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.4990000000000001</v>
+      <c r="M28" s="6">
+        <v>1499</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,8 +2054,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.2749999999999999</v>
+      <c r="C29" s="5">
+        <v>1275</v>
       </c>
       <c r="D29" s="4">
         <v>293</v>
@@ -2070,54 +2084,54 @@
       <c r="L29" s="4">
         <v>56</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.968</v>
+      <c r="M29" s="6">
+        <v>1968</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10.707000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4.9180000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>8.6010000000000009</v>
-      </c>
-      <c r="H30" s="5">
-        <v>16.081</v>
-      </c>
-      <c r="I30" s="5">
-        <v>6.641</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>3050</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1902</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10707</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4918</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8601</v>
+      </c>
+      <c r="H30" s="6">
+        <v>16081</v>
+      </c>
+      <c r="I30" s="6">
+        <v>6641</v>
+      </c>
+      <c r="J30" s="8">
         <v>583</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="8">
         <v>48</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>616</v>
       </c>
-      <c r="M30" s="5">
-        <v>53.146999999999998</v>
+      <c r="M30" s="6">
+        <v>53147</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2188,8 @@
       <c r="G32" s="4">
         <v>350</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.27</v>
+      <c r="H32" s="5">
+        <v>1270</v>
       </c>
       <c r="I32" s="4">
         <v>293</v>
@@ -2189,8 +2203,8 @@
       <c r="L32" s="4">
         <v>6</v>
       </c>
-      <c r="M32" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M32" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2213,8 +2227,8 @@
       <c r="G33" s="4">
         <v>264</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.103</v>
+      <c r="H33" s="5">
+        <v>1103</v>
       </c>
       <c r="I33" s="4">
         <v>384</v>
@@ -2228,8 +2242,8 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
-        <v>1.7629999999999999</v>
+      <c r="M33" s="6">
+        <v>1763</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,7 +2283,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="8">
         <v>995</v>
       </c>
     </row>
@@ -2308,7 +2322,7 @@
       <c r="L35" s="4">
         <v>2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>833</v>
       </c>
     </row>
@@ -2349,7 +2363,7 @@
       <c r="L36" s="4">
         <v>5</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>786</v>
       </c>
     </row>
@@ -2388,7 +2402,7 @@
       <c r="L37" s="4">
         <v>3</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>660</v>
       </c>
     </row>
@@ -2429,7 +2443,7 @@
       <c r="L38" s="4">
         <v>4</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>922</v>
       </c>
     </row>
@@ -2468,7 +2482,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>799</v>
       </c>
     </row>
@@ -2509,8 +2523,8 @@
       <c r="L40" s="4">
         <v>6</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.056</v>
+      <c r="M40" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,7 +2562,7 @@
       <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>981</v>
       </c>
     </row>
@@ -2589,7 +2603,7 @@
       <c r="L42" s="4">
         <v>6</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>963</v>
       </c>
     </row>
@@ -2628,7 +2642,7 @@
       <c r="L43" s="4">
         <v>3</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>962</v>
       </c>
     </row>
@@ -2669,8 +2683,8 @@
       <c r="L44" s="4">
         <v>4</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.1240000000000001</v>
+      <c r="M44" s="6">
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2708,8 +2722,8 @@
       <c r="L45" s="4">
         <v>7</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.1819999999999999</v>
+      <c r="M45" s="6">
+        <v>1182</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2749,8 +2763,8 @@
       <c r="L46" s="4">
         <v>7</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M46" s="6">
+        <v>1114</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,8 +2802,8 @@
       <c r="L47" s="4">
         <v>8</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.1439999999999999</v>
+      <c r="M47" s="6">
+        <v>1144</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2829,8 +2843,8 @@
       <c r="L48" s="4">
         <v>10</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.1279999999999999</v>
+      <c r="M48" s="6">
+        <v>1128</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,8 +2882,8 @@
       <c r="L49" s="4">
         <v>12</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.052</v>
+      <c r="M49" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2909,8 +2923,8 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M50" s="6">
+        <v>1031</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2948,8 +2962,8 @@
       <c r="L51" s="4">
         <v>7</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.0569999999999999</v>
+      <c r="M51" s="6">
+        <v>1057</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,7 +3003,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>741</v>
       </c>
     </row>
@@ -3028,7 +3042,7 @@
       <c r="L53" s="4">
         <v>7</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>916</v>
       </c>
     </row>
@@ -3069,8 +3083,8 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.1180000000000001</v>
+      <c r="M54" s="6">
+        <v>1118</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3108,54 +3122,54 @@
       <c r="L55" s="4">
         <v>11</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.377</v>
+      <c r="M55" s="6">
+        <v>1377</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>942</v>
       </c>
-      <c r="D56" s="5">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.724</v>
-      </c>
-      <c r="G56" s="5">
-        <v>3.589</v>
-      </c>
-      <c r="H56" s="5">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="I56" s="5">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="D56" s="6">
+        <v>2249</v>
+      </c>
+      <c r="E56" s="6">
+        <v>6175</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1724</v>
+      </c>
+      <c r="G56" s="6">
+        <v>3589</v>
+      </c>
+      <c r="H56" s="6">
+        <v>7172</v>
+      </c>
+      <c r="I56" s="6">
+        <v>3401</v>
+      </c>
+      <c r="J56" s="8">
         <v>246</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>18</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>125</v>
       </c>
-      <c r="M56" s="5">
-        <v>25.640999999999998</v>
+      <c r="M56" s="6">
+        <v>25641</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3227,8 +3241,8 @@
       <c r="L58" s="4">
         <v>21</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.2909999999999999</v>
+      <c r="M58" s="6">
+        <v>1291</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,8 +3280,8 @@
       <c r="L59" s="4">
         <v>7</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.238</v>
+      <c r="M59" s="6">
+        <v>1238</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3307,7 +3321,7 @@
       <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>800</v>
       </c>
     </row>
@@ -3346,7 +3360,7 @@
       <c r="L61" s="4">
         <v>3</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>708</v>
       </c>
     </row>
@@ -3387,7 +3401,7 @@
       <c r="L62" s="4">
         <v>5</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>655</v>
       </c>
     </row>
@@ -3426,7 +3440,7 @@
       <c r="L63" s="4">
         <v>4</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>564</v>
       </c>
     </row>
@@ -3467,7 +3481,7 @@
       <c r="L64" s="4">
         <v>18</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>802</v>
       </c>
     </row>
@@ -3506,7 +3520,7 @@
       <c r="L65" s="4">
         <v>6</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>661</v>
       </c>
     </row>
@@ -3547,7 +3561,7 @@
       <c r="L66" s="4">
         <v>13</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>805</v>
       </c>
     </row>
@@ -3586,7 +3600,7 @@
       <c r="L67" s="4">
         <v>12</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>764</v>
       </c>
     </row>
@@ -3627,7 +3641,7 @@
       <c r="L68" s="4">
         <v>13</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>719</v>
       </c>
     </row>
@@ -3666,7 +3680,7 @@
       <c r="L69" s="4">
         <v>10</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>684</v>
       </c>
     </row>
@@ -3707,7 +3721,7 @@
       <c r="L70" s="4">
         <v>10</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>715</v>
       </c>
     </row>
@@ -3746,7 +3760,7 @@
       <c r="L71" s="4">
         <v>10</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>721</v>
       </c>
     </row>
@@ -3787,7 +3801,7 @@
       <c r="L72" s="4">
         <v>7</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>581</v>
       </c>
     </row>
@@ -3826,7 +3840,7 @@
       <c r="L73" s="4">
         <v>19</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>617</v>
       </c>
     </row>
@@ -3867,7 +3881,7 @@
       <c r="L74" s="4">
         <v>16</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>518</v>
       </c>
     </row>
@@ -3906,7 +3920,7 @@
       <c r="L75" s="4">
         <v>7</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>527</v>
       </c>
     </row>
@@ -3947,7 +3961,7 @@
       <c r="L76" s="4">
         <v>13</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>520</v>
       </c>
     </row>
@@ -3986,7 +4000,7 @@
       <c r="L77" s="4">
         <v>16</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>493</v>
       </c>
     </row>
@@ -4027,7 +4041,7 @@
       <c r="L78" s="4">
         <v>13</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>354</v>
       </c>
     </row>
@@ -4066,7 +4080,7 @@
       <c r="L79" s="4">
         <v>14</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>409</v>
       </c>
     </row>
@@ -4107,7 +4121,7 @@
       <c r="L80" s="4">
         <v>21</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>563</v>
       </c>
     </row>
@@ -4146,7 +4160,7 @@
       <c r="L81" s="4">
         <v>18</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>686</v>
       </c>
     </row>
@@ -4154,46 +4168,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.292</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.452</v>
-      </c>
-      <c r="E82" s="5">
-        <v>4.3070000000000004</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.137</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.552</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>1292</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1452</v>
+      </c>
+      <c r="E82" s="6">
+        <v>4307</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1730</v>
+      </c>
+      <c r="G82" s="6">
+        <v>2501</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3137</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1552</v>
+      </c>
+      <c r="J82" s="8">
         <v>137</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>6</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>281</v>
       </c>
-      <c r="M82" s="5">
-        <v>16.395</v>
+      <c r="M82" s="6">
+        <v>16395</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4247,14 +4261,14 @@
       <c r="F84" s="4">
         <v>14</v>
       </c>
-      <c r="G84" s="4">
-        <v>4.6159999999999997</v>
-      </c>
-      <c r="H84" s="4">
-        <v>6.6710000000000003</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.2390000000000001</v>
+      <c r="G84" s="5">
+        <v>4616</v>
+      </c>
+      <c r="H84" s="5">
+        <v>6671</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1239</v>
       </c>
       <c r="J84" s="4">
         <v>9</v>
@@ -4265,8 +4279,8 @@
       <c r="L84" s="4">
         <v>186</v>
       </c>
-      <c r="M84" s="5">
-        <v>12.882999999999999</v>
+      <c r="M84" s="6">
+        <v>12883</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4286,14 +4300,14 @@
       <c r="F85" s="4">
         <v>3</v>
       </c>
-      <c r="G85" s="4">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>6.8819999999999997</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.72</v>
+      <c r="G85" s="5">
+        <v>3575</v>
+      </c>
+      <c r="H85" s="5">
+        <v>6882</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1720</v>
       </c>
       <c r="J85" s="4">
         <v>6</v>
@@ -4304,8 +4318,8 @@
       <c r="L85" s="4">
         <v>96</v>
       </c>
-      <c r="M85" s="5">
-        <v>12.513999999999999</v>
+      <c r="M85" s="6">
+        <v>12514</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4327,14 +4341,14 @@
       <c r="F86" s="4">
         <v>122</v>
       </c>
-      <c r="G86" s="4">
-        <v>2.883</v>
-      </c>
-      <c r="H86" s="4">
-        <v>2.718</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.73</v>
+      <c r="G86" s="5">
+        <v>2883</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2718</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2730</v>
       </c>
       <c r="J86" s="4">
         <v>134</v>
@@ -4345,8 +4359,8 @@
       <c r="L86" s="4">
         <v>111</v>
       </c>
-      <c r="M86" s="5">
-        <v>8.8109999999999999</v>
+      <c r="M86" s="6">
+        <v>8811</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4366,14 +4380,14 @@
       <c r="F87" s="4">
         <v>196</v>
       </c>
-      <c r="G87" s="4">
-        <v>2.7170000000000001</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.867</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.38</v>
+      <c r="G87" s="5">
+        <v>2717</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1867</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2380</v>
       </c>
       <c r="J87" s="4">
         <v>132</v>
@@ -4384,8 +4398,8 @@
       <c r="L87" s="4">
         <v>109</v>
       </c>
-      <c r="M87" s="5">
-        <v>7.9669999999999996</v>
+      <c r="M87" s="6">
+        <v>7967</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4404,17 +4418,17 @@
       <c r="E88" s="4">
         <v>71</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="H88" s="4">
-        <v>2.4630000000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2.1179999999999999</v>
+      <c r="F88" s="5">
+        <v>1824</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1288</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2463</v>
+      </c>
+      <c r="I88" s="5">
+        <v>2118</v>
       </c>
       <c r="J88" s="4">
         <v>204</v>
@@ -4425,8 +4439,8 @@
       <c r="L88" s="4">
         <v>100</v>
       </c>
-      <c r="M88" s="5">
-        <v>8.1579999999999995</v>
+      <c r="M88" s="6">
+        <v>8158</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4443,17 +4457,17 @@
       <c r="E89" s="4">
         <v>405</v>
       </c>
-      <c r="F89" s="4">
-        <v>2.2490000000000001</v>
+      <c r="F89" s="5">
+        <v>2249</v>
       </c>
       <c r="G89" s="4">
         <v>946</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.544</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1.383</v>
+      <c r="H89" s="5">
+        <v>1544</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1383</v>
       </c>
       <c r="J89" s="4">
         <v>121</v>
@@ -4464,8 +4478,8 @@
       <c r="L89" s="4">
         <v>131</v>
       </c>
-      <c r="M89" s="5">
-        <v>7.2240000000000002</v>
+      <c r="M89" s="6">
+        <v>7224</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4484,17 +4498,17 @@
       <c r="E90" s="4">
         <v>700</v>
       </c>
-      <c r="F90" s="4">
-        <v>2.2410000000000001</v>
+      <c r="F90" s="5">
+        <v>2241</v>
       </c>
       <c r="G90" s="4">
         <v>943</v>
       </c>
-      <c r="H90" s="4">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.4019999999999999</v>
+      <c r="H90" s="5">
+        <v>2494</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1402</v>
       </c>
       <c r="J90" s="4">
         <v>158</v>
@@ -4505,8 +4519,8 @@
       <c r="L90" s="4">
         <v>126</v>
       </c>
-      <c r="M90" s="5">
-        <v>8.1329999999999991</v>
+      <c r="M90" s="6">
+        <v>8133</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4520,17 +4534,17 @@
       <c r="D91" s="4">
         <v>191</v>
       </c>
-      <c r="E91" s="4">
-        <v>2.048</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.889</v>
+      <c r="E91" s="5">
+        <v>2048</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1889</v>
       </c>
       <c r="G91" s="4">
         <v>760</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.284</v>
+      <c r="H91" s="5">
+        <v>1284</v>
       </c>
       <c r="I91" s="4">
         <v>596</v>
@@ -4544,8 +4558,8 @@
       <c r="L91" s="4">
         <v>112</v>
       </c>
-      <c r="M91" s="5">
-        <v>7.0860000000000003</v>
+      <c r="M91" s="6">
+        <v>7086</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4561,17 +4575,17 @@
       <c r="D92" s="4">
         <v>21</v>
       </c>
-      <c r="E92" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.579</v>
-      </c>
-      <c r="H92" s="4">
-        <v>2.0259999999999998</v>
+      <c r="E92" s="5">
+        <v>1389</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1745</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1579</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2026</v>
       </c>
       <c r="I92" s="4">
         <v>867</v>
@@ -4585,8 +4599,8 @@
       <c r="L92" s="4">
         <v>134</v>
       </c>
-      <c r="M92" s="5">
-        <v>7.9139999999999997</v>
+      <c r="M92" s="6">
+        <v>7914</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4600,14 +4614,14 @@
       <c r="D93" s="4">
         <v>256</v>
       </c>
-      <c r="E93" s="4">
-        <v>3.052</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.103</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1.125</v>
+      <c r="E93" s="5">
+        <v>3052</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1103</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1125</v>
       </c>
       <c r="H93" s="4">
         <v>922</v>
@@ -4624,8 +4638,8 @@
       <c r="L93" s="4">
         <v>101</v>
       </c>
-      <c r="M93" s="5">
-        <v>7.1589999999999998</v>
+      <c r="M93" s="6">
+        <v>7159</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4641,17 +4655,17 @@
       <c r="D94" s="4">
         <v>22</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1.627</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1.474</v>
+      <c r="E94" s="5">
+        <v>1289</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1627</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1205</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1474</v>
       </c>
       <c r="I94" s="4">
         <v>561</v>
@@ -4665,8 +4679,8 @@
       <c r="L94" s="4">
         <v>97</v>
       </c>
-      <c r="M94" s="5">
-        <v>6.3650000000000002</v>
+      <c r="M94" s="6">
+        <v>6365</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4680,8 +4694,8 @@
       <c r="D95" s="4">
         <v>271</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.6829999999999998</v>
+      <c r="E95" s="5">
+        <v>2683</v>
       </c>
       <c r="F95" s="4">
         <v>959</v>
@@ -4704,8 +4718,8 @@
       <c r="L95" s="4">
         <v>102</v>
       </c>
-      <c r="M95" s="5">
-        <v>6.0149999999999997</v>
+      <c r="M95" s="6">
+        <v>6015</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4721,14 +4735,14 @@
       <c r="D96" s="4">
         <v>29</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.099</v>
+      <c r="E96" s="5">
+        <v>1237</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1530</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1099</v>
       </c>
       <c r="H96" s="4">
         <v>927</v>
@@ -4745,8 +4759,8 @@
       <c r="L96" s="4">
         <v>106</v>
       </c>
-      <c r="M96" s="5">
-        <v>5.4409999999999998</v>
+      <c r="M96" s="6">
+        <v>5441</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4760,8 +4774,8 @@
       <c r="D97" s="4">
         <v>454</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.3969999999999998</v>
+      <c r="E97" s="5">
+        <v>2397</v>
       </c>
       <c r="F97" s="4">
         <v>701</v>
@@ -4784,8 +4798,8 @@
       <c r="L97" s="4">
         <v>115</v>
       </c>
-      <c r="M97" s="5">
-        <v>5.2539999999999996</v>
+      <c r="M97" s="6">
+        <v>5254</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4801,11 +4815,11 @@
       <c r="D98" s="4">
         <v>46</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.1399999999999999</v>
+      <c r="E98" s="5">
+        <v>1370</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1140</v>
       </c>
       <c r="G98" s="4">
         <v>860</v>
@@ -4825,8 +4839,8 @@
       <c r="L98" s="4">
         <v>106</v>
       </c>
-      <c r="M98" s="5">
-        <v>4.4530000000000003</v>
+      <c r="M98" s="6">
+        <v>4453</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4840,8 +4854,8 @@
       <c r="D99" s="4">
         <v>549</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.915</v>
+      <c r="E99" s="5">
+        <v>1915</v>
       </c>
       <c r="F99" s="4">
         <v>369</v>
@@ -4864,8 +4878,8 @@
       <c r="L99" s="4">
         <v>92</v>
       </c>
-      <c r="M99" s="5">
-        <v>4.0999999999999996</v>
+      <c r="M99" s="6">
+        <v>4100</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4881,8 +4895,8 @@
       <c r="D100" s="4">
         <v>61</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.5740000000000001</v>
+      <c r="E100" s="5">
+        <v>1574</v>
       </c>
       <c r="F100" s="4">
         <v>695</v>
@@ -4905,8 +4919,8 @@
       <c r="L100" s="4">
         <v>93</v>
       </c>
-      <c r="M100" s="5">
-        <v>3.7229999999999999</v>
+      <c r="M100" s="6">
+        <v>3723</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4920,8 +4934,8 @@
       <c r="D101" s="4">
         <v>627</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.4790000000000001</v>
+      <c r="E101" s="5">
+        <v>1479</v>
       </c>
       <c r="F101" s="4">
         <v>178</v>
@@ -4944,8 +4958,8 @@
       <c r="L101" s="4">
         <v>96</v>
       </c>
-      <c r="M101" s="5">
-        <v>3.6</v>
+      <c r="M101" s="6">
+        <v>3600</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,8 +4975,8 @@
       <c r="D102" s="4">
         <v>133</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.4319999999999999</v>
+      <c r="E102" s="5">
+        <v>1432</v>
       </c>
       <c r="F102" s="4">
         <v>333</v>
@@ -4985,8 +4999,8 @@
       <c r="L102" s="4">
         <v>107</v>
       </c>
-      <c r="M102" s="5">
-        <v>2.9239999999999999</v>
+      <c r="M102" s="6">
+        <v>2924</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4994,8 +5008,8 @@
       <c r="B103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="4">
-        <v>1.0249999999999999</v>
+      <c r="C103" s="5">
+        <v>1025</v>
       </c>
       <c r="D103" s="4">
         <v>646</v>
@@ -5024,8 +5038,8 @@
       <c r="L103" s="4">
         <v>83</v>
       </c>
-      <c r="M103" s="5">
-        <v>2.927</v>
+      <c r="M103" s="6">
+        <v>2927</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5041,8 +5055,8 @@
       <c r="D104" s="4">
         <v>218</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.1060000000000001</v>
+      <c r="E104" s="5">
+        <v>1106</v>
       </c>
       <c r="F104" s="4">
         <v>128</v>
@@ -5065,8 +5079,8 @@
       <c r="L104" s="4">
         <v>73</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.1</v>
+      <c r="M104" s="6">
+        <v>2100</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5074,8 +5088,8 @@
       <c r="B105" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
-        <v>1.109</v>
+      <c r="C105" s="5">
+        <v>1109</v>
       </c>
       <c r="D105" s="4">
         <v>450</v>
@@ -5104,8 +5118,8 @@
       <c r="L105" s="4">
         <v>73</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.2400000000000002</v>
+      <c r="M105" s="6">
+        <v>2240</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5121,8 +5135,8 @@
       <c r="D106" s="4">
         <v>522</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.127</v>
+      <c r="E106" s="5">
+        <v>1127</v>
       </c>
       <c r="F106" s="4">
         <v>41</v>
@@ -5145,8 +5159,8 @@
       <c r="L106" s="4">
         <v>74</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.5329999999999999</v>
+      <c r="M106" s="6">
+        <v>2533</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5154,8 +5168,8 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>2.0830000000000002</v>
+      <c r="C107" s="5">
+        <v>2083</v>
       </c>
       <c r="D107" s="4">
         <v>537</v>
@@ -5184,54 +5198,54 @@
       <c r="L107" s="4">
         <v>95</v>
       </c>
-      <c r="M107" s="5">
-        <v>3.1389999999999998</v>
+      <c r="M107" s="6">
+        <v>3139</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>7.6020000000000003</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5.8109999999999999</v>
-      </c>
-      <c r="E108" s="5">
-        <v>27.640999999999998</v>
-      </c>
-      <c r="F108" s="5">
-        <v>19.163</v>
-      </c>
-      <c r="G108" s="5">
-        <v>27.172999999999998</v>
-      </c>
-      <c r="H108" s="5">
-        <v>34.466999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>16.984000000000002</v>
-      </c>
-      <c r="J108" s="5">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>7602</v>
+      </c>
+      <c r="D108" s="6">
+        <v>5811</v>
+      </c>
+      <c r="E108" s="6">
+        <v>27641</v>
+      </c>
+      <c r="F108" s="6">
+        <v>19163</v>
+      </c>
+      <c r="G108" s="6">
+        <v>27173</v>
+      </c>
+      <c r="H108" s="6">
+        <v>34467</v>
+      </c>
+      <c r="I108" s="6">
+        <v>16984</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1184</v>
+      </c>
+      <c r="K108" s="8">
         <v>120</v>
       </c>
-      <c r="L108" s="5">
-        <v>2.5179999999999998</v>
-      </c>
-      <c r="M108" s="5">
-        <v>142.66300000000001</v>
+      <c r="L108" s="6">
+        <v>2518</v>
+      </c>
+      <c r="M108" s="6">
+        <v>142663</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5303,7 +5317,7 @@
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>638</v>
       </c>
     </row>
@@ -5342,7 +5356,7 @@
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>570</v>
       </c>
     </row>
@@ -5383,7 +5397,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>467</v>
       </c>
     </row>
@@ -5422,7 +5436,7 @@
       <c r="L113" s="4">
         <v>3</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>296</v>
       </c>
     </row>
@@ -5463,7 +5477,7 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>307</v>
       </c>
     </row>
@@ -5502,7 +5516,7 @@
       <c r="L115" s="4">
         <v>3</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>224</v>
       </c>
     </row>
@@ -5543,7 +5557,7 @@
       <c r="L116" s="4">
         <v>6</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>324</v>
       </c>
     </row>
@@ -5582,7 +5596,7 @@
       <c r="L117" s="4">
         <v>4</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>193</v>
       </c>
     </row>
@@ -5623,7 +5637,7 @@
       <c r="L118" s="4">
         <v>6</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>307</v>
       </c>
     </row>
@@ -5662,7 +5676,7 @@
       <c r="L119" s="4">
         <v>4</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>238</v>
       </c>
     </row>
@@ -5703,7 +5717,7 @@
       <c r="L120" s="4">
         <v>7</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>258</v>
       </c>
     </row>
@@ -5742,7 +5756,7 @@
       <c r="L121" s="4">
         <v>5</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>294</v>
       </c>
     </row>
@@ -5783,7 +5797,7 @@
       <c r="L122" s="4">
         <v>7</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>332</v>
       </c>
     </row>
@@ -5822,7 +5836,7 @@
       <c r="L123" s="4">
         <v>4</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>331</v>
       </c>
     </row>
@@ -5863,7 +5877,7 @@
       <c r="L124" s="4">
         <v>6</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>312</v>
       </c>
     </row>
@@ -5902,7 +5916,7 @@
       <c r="L125" s="4">
         <v>5</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>289</v>
       </c>
     </row>
@@ -5943,7 +5957,7 @@
       <c r="L126" s="4">
         <v>8</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>255</v>
       </c>
     </row>
@@ -5982,7 +5996,7 @@
       <c r="L127" s="4">
         <v>11</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>253</v>
       </c>
     </row>
@@ -6023,7 +6037,7 @@
       <c r="L128" s="4">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>277</v>
       </c>
     </row>
@@ -6062,7 +6076,7 @@
       <c r="L129" s="4">
         <v>6</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>196</v>
       </c>
     </row>
@@ -6103,7 +6117,7 @@
       <c r="L130" s="4">
         <v>9</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>200</v>
       </c>
     </row>
@@ -6142,7 +6156,7 @@
       <c r="L131" s="4">
         <v>7</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>208</v>
       </c>
     </row>
@@ -6183,7 +6197,7 @@
       <c r="L132" s="4">
         <v>6</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>306</v>
       </c>
     </row>
@@ -6222,7 +6236,7 @@
       <c r="L133" s="4">
         <v>7</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>417</v>
       </c>
     </row>
@@ -6230,46 +6244,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>316</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>569</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.165</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>2165</v>
+      </c>
+      <c r="F134" s="8">
         <v>632</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.256</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="6">
+        <v>1256</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1725</v>
+      </c>
+      <c r="I134" s="8">
         <v>657</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>34</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>1</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>137</v>
       </c>
-      <c r="M134" s="5">
-        <v>7.492</v>
+      <c r="M134" s="6">
+        <v>7492</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6323,11 +6337,11 @@
       <c r="F136" s="4">
         <v>7</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.657</v>
+      <c r="G136" s="5">
+        <v>1463</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4657</v>
       </c>
       <c r="I136" s="4">
         <v>796</v>
@@ -6341,8 +6355,8 @@
       <c r="L136" s="4">
         <v>56</v>
       </c>
-      <c r="M136" s="5">
-        <v>7.0830000000000002</v>
+      <c r="M136" s="6">
+        <v>7083</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6362,14 +6376,14 @@
       <c r="F137" s="4">
         <v>1</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.381</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.1879999999999999</v>
+      <c r="G137" s="5">
+        <v>1381</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4272</v>
+      </c>
+      <c r="I137" s="5">
+        <v>1188</v>
       </c>
       <c r="J137" s="4">
         <v>10</v>
@@ -6380,8 +6394,8 @@
       <c r="L137" s="4">
         <v>30</v>
       </c>
-      <c r="M137" s="5">
-        <v>6.9809999999999999</v>
+      <c r="M137" s="6">
+        <v>6981</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,11 +6420,11 @@
       <c r="G138" s="4">
         <v>916</v>
       </c>
-      <c r="H138" s="4">
-        <v>1.712</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.512</v>
+      <c r="H138" s="5">
+        <v>1712</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1512</v>
       </c>
       <c r="J138" s="4">
         <v>109</v>
@@ -6421,8 +6435,8 @@
       <c r="L138" s="4">
         <v>30</v>
       </c>
-      <c r="M138" s="5">
-        <v>4.3849999999999998</v>
+      <c r="M138" s="6">
+        <v>4385</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6442,14 +6456,14 @@
       <c r="F139" s="4">
         <v>77</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="I139" s="4">
-        <v>1.8140000000000001</v>
+      <c r="G139" s="5">
+        <v>1118</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1190</v>
+      </c>
+      <c r="I139" s="5">
+        <v>1814</v>
       </c>
       <c r="J139" s="4">
         <v>155</v>
@@ -6460,8 +6474,8 @@
       <c r="L139" s="4">
         <v>30</v>
       </c>
-      <c r="M139" s="5">
-        <v>4.6230000000000002</v>
+      <c r="M139" s="6">
+        <v>4623</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,11 +6500,11 @@
       <c r="G140" s="4">
         <v>562</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.2509999999999999</v>
+      <c r="H140" s="5">
+        <v>1432</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1251</v>
       </c>
       <c r="J140" s="4">
         <v>158</v>
@@ -6501,8 +6515,8 @@
       <c r="L140" s="4">
         <v>36</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.0720000000000001</v>
+      <c r="M140" s="6">
+        <v>4072</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6519,17 +6533,17 @@
       <c r="E141" s="4">
         <v>132</v>
       </c>
-      <c r="F141" s="4">
-        <v>1.03</v>
+      <c r="F141" s="5">
+        <v>1030</v>
       </c>
       <c r="G141" s="4">
         <v>472</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.032</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1.2190000000000001</v>
+      <c r="H141" s="5">
+        <v>1032</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1219</v>
       </c>
       <c r="J141" s="4">
         <v>148</v>
@@ -6540,8 +6554,8 @@
       <c r="L141" s="4">
         <v>23</v>
       </c>
-      <c r="M141" s="5">
-        <v>4.1669999999999998</v>
+      <c r="M141" s="6">
+        <v>4167</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6566,11 +6580,11 @@
       <c r="G142" s="4">
         <v>533</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.712</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.1359999999999999</v>
+      <c r="H142" s="5">
+        <v>1712</v>
+      </c>
+      <c r="I142" s="5">
+        <v>1136</v>
       </c>
       <c r="J142" s="4">
         <v>161</v>
@@ -6581,8 +6595,8 @@
       <c r="L142" s="4">
         <v>54</v>
       </c>
-      <c r="M142" s="5">
-        <v>4.7649999999999997</v>
+      <c r="M142" s="6">
+        <v>4765</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6596,8 +6610,8 @@
       <c r="D143" s="4">
         <v>55</v>
       </c>
-      <c r="E143" s="4">
-        <v>1.008</v>
+      <c r="E143" s="5">
+        <v>1008</v>
       </c>
       <c r="F143" s="4">
         <v>781</v>
@@ -6605,8 +6619,8 @@
       <c r="G143" s="4">
         <v>428</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.099</v>
+      <c r="H143" s="5">
+        <v>1099</v>
       </c>
       <c r="I143" s="4">
         <v>786</v>
@@ -6620,8 +6634,8 @@
       <c r="L143" s="4">
         <v>53</v>
       </c>
-      <c r="M143" s="5">
-        <v>4.3440000000000003</v>
+      <c r="M143" s="6">
+        <v>4344</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6643,11 +6657,11 @@
       <c r="F144" s="4">
         <v>749</v>
       </c>
-      <c r="G144" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H144" s="4">
-        <v>1.7370000000000001</v>
+      <c r="G144" s="5">
+        <v>1048</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1737</v>
       </c>
       <c r="I144" s="4">
         <v>857</v>
@@ -6661,8 +6675,8 @@
       <c r="L144" s="4">
         <v>67</v>
       </c>
-      <c r="M144" s="5">
-        <v>5.2050000000000001</v>
+      <c r="M144" s="6">
+        <v>5205</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,8 +6690,8 @@
       <c r="D145" s="4">
         <v>61</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.573</v>
+      <c r="E145" s="5">
+        <v>1573</v>
       </c>
       <c r="F145" s="4">
         <v>464</v>
@@ -6700,8 +6714,8 @@
       <c r="L145" s="4">
         <v>53</v>
       </c>
-      <c r="M145" s="5">
-        <v>4.3310000000000004</v>
+      <c r="M145" s="6">
+        <v>4331</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6726,8 +6740,8 @@
       <c r="G146" s="4">
         <v>803</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.262</v>
+      <c r="H146" s="5">
+        <v>1262</v>
       </c>
       <c r="I146" s="4">
         <v>561</v>
@@ -6741,8 +6755,8 @@
       <c r="L146" s="4">
         <v>61</v>
       </c>
-      <c r="M146" s="5">
-        <v>4.0999999999999996</v>
+      <c r="M146" s="6">
+        <v>4100</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6756,8 +6770,8 @@
       <c r="D147" s="4">
         <v>73</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.65</v>
+      <c r="E147" s="5">
+        <v>1650</v>
       </c>
       <c r="F147" s="4">
         <v>478</v>
@@ -6780,8 +6794,8 @@
       <c r="L147" s="4">
         <v>65</v>
       </c>
-      <c r="M147" s="5">
-        <v>3.6760000000000002</v>
+      <c r="M147" s="6">
+        <v>3676</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,8 +6835,8 @@
       <c r="L148" s="4">
         <v>96</v>
       </c>
-      <c r="M148" s="5">
-        <v>3.8919999999999999</v>
+      <c r="M148" s="6">
+        <v>3892</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6836,8 +6850,8 @@
       <c r="D149" s="4">
         <v>117</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.748</v>
+      <c r="E149" s="5">
+        <v>1748</v>
       </c>
       <c r="F149" s="4">
         <v>479</v>
@@ -6860,8 +6874,8 @@
       <c r="L149" s="4">
         <v>72</v>
       </c>
-      <c r="M149" s="5">
-        <v>3.5350000000000001</v>
+      <c r="M149" s="6">
+        <v>3535</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,8 +6915,8 @@
       <c r="L150" s="4">
         <v>102</v>
       </c>
-      <c r="M150" s="5">
-        <v>3.2679999999999998</v>
+      <c r="M150" s="6">
+        <v>3268</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6916,8 +6930,8 @@
       <c r="D151" s="4">
         <v>181</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.5549999999999999</v>
+      <c r="E151" s="5">
+        <v>1555</v>
       </c>
       <c r="F151" s="4">
         <v>315</v>
@@ -6940,8 +6954,8 @@
       <c r="L151" s="4">
         <v>69</v>
       </c>
-      <c r="M151" s="5">
-        <v>2.9249999999999998</v>
+      <c r="M151" s="6">
+        <v>2925</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6981,8 +6995,8 @@
       <c r="L152" s="4">
         <v>80</v>
       </c>
-      <c r="M152" s="5">
-        <v>2.6469999999999998</v>
+      <c r="M152" s="6">
+        <v>2647</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6996,8 +7010,8 @@
       <c r="D153" s="4">
         <v>238</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.2829999999999999</v>
+      <c r="E153" s="5">
+        <v>1283</v>
       </c>
       <c r="F153" s="4">
         <v>145</v>
@@ -7020,8 +7034,8 @@
       <c r="L153" s="4">
         <v>60</v>
       </c>
-      <c r="M153" s="5">
-        <v>2.3410000000000002</v>
+      <c r="M153" s="6">
+        <v>2341</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7061,8 +7075,8 @@
       <c r="L154" s="4">
         <v>55</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.974</v>
+      <c r="M154" s="6">
+        <v>1974</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7100,8 +7114,8 @@
       <c r="L155" s="4">
         <v>44</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.929</v>
+      <c r="M155" s="6">
+        <v>1929</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,8 +7155,8 @@
       <c r="L156" s="4">
         <v>50</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.5609999999999999</v>
+      <c r="M156" s="6">
+        <v>1561</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7180,8 +7194,8 @@
       <c r="L157" s="4">
         <v>53</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.611</v>
+      <c r="M157" s="6">
+        <v>1611</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7221,8 +7235,8 @@
       <c r="L158" s="4">
         <v>50</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.712</v>
+      <c r="M158" s="6">
+        <v>1712</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7230,8 +7244,8 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.3480000000000001</v>
+      <c r="C159" s="5">
+        <v>1348</v>
       </c>
       <c r="D159" s="4">
         <v>512</v>
@@ -7260,54 +7274,54 @@
       <c r="L159" s="4">
         <v>76</v>
       </c>
-      <c r="M159" s="5">
-        <v>2.59</v>
+      <c r="M159" s="6">
+        <v>2590</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>3.363</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="E160" s="5">
-        <v>17.934000000000001</v>
-      </c>
-      <c r="F160" s="5">
-        <v>8.8480000000000008</v>
-      </c>
-      <c r="G160" s="5">
-        <v>14.041</v>
-      </c>
-      <c r="H160" s="5">
-        <v>24.645</v>
-      </c>
-      <c r="I160" s="5">
-        <v>13.294</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="K160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>3363</v>
+      </c>
+      <c r="D160" s="6">
+        <v>2725</v>
+      </c>
+      <c r="E160" s="6">
+        <v>17934</v>
+      </c>
+      <c r="F160" s="6">
+        <v>8848</v>
+      </c>
+      <c r="G160" s="6">
+        <v>14041</v>
+      </c>
+      <c r="H160" s="6">
+        <v>24645</v>
+      </c>
+      <c r="I160" s="6">
+        <v>13294</v>
+      </c>
+      <c r="J160" s="6">
+        <v>1412</v>
+      </c>
+      <c r="K160" s="8">
         <v>90</v>
       </c>
-      <c r="L160" s="5">
-        <v>1.365</v>
-      </c>
-      <c r="M160" s="5">
-        <v>87.716999999999999</v>
+      <c r="L160" s="6">
+        <v>1365</v>
+      </c>
+      <c r="M160" s="6">
+        <v>87717</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7364,8 +7378,8 @@
       <c r="G162" s="4">
         <v>493</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.7410000000000001</v>
+      <c r="H162" s="5">
+        <v>1741</v>
       </c>
       <c r="I162" s="4">
         <v>370</v>
@@ -7379,8 +7393,8 @@
       <c r="L162" s="4">
         <v>39</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.665</v>
+      <c r="M162" s="6">
+        <v>2665</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7403,8 +7417,8 @@
       <c r="G163" s="4">
         <v>477</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.51</v>
+      <c r="H163" s="5">
+        <v>1510</v>
       </c>
       <c r="I163" s="4">
         <v>452</v>
@@ -7418,8 +7432,8 @@
       <c r="L163" s="4">
         <v>12</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.4889999999999999</v>
+      <c r="M163" s="6">
+        <v>2489</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7459,8 +7473,8 @@
       <c r="L164" s="4">
         <v>12</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.5940000000000001</v>
+      <c r="M164" s="6">
+        <v>1594</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7498,8 +7512,8 @@
       <c r="L165" s="4">
         <v>5</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M165" s="6">
+        <v>1489</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7539,8 +7553,8 @@
       <c r="L166" s="4">
         <v>12</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.43</v>
+      <c r="M166" s="6">
+        <v>1430</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7578,8 +7592,8 @@
       <c r="L167" s="4">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.288</v>
+      <c r="M167" s="6">
+        <v>1288</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7619,8 +7633,8 @@
       <c r="L168" s="4">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.546</v>
+      <c r="M168" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7658,8 +7672,8 @@
       <c r="L169" s="4">
         <v>13</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.2869999999999999</v>
+      <c r="M169" s="6">
+        <v>1287</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7699,8 +7713,8 @@
       <c r="L170" s="4">
         <v>24</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.5389999999999999</v>
+      <c r="M170" s="6">
+        <v>1539</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7738,8 +7752,8 @@
       <c r="L171" s="4">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.456</v>
+      <c r="M171" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7779,8 +7793,8 @@
       <c r="L172" s="4">
         <v>31</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.3919999999999999</v>
+      <c r="M172" s="6">
+        <v>1392</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7818,8 +7832,8 @@
       <c r="L173" s="4">
         <v>21</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M173" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7859,8 +7873,8 @@
       <c r="L174" s="4">
         <v>22</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.5029999999999999</v>
+      <c r="M174" s="6">
+        <v>1503</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7898,8 +7912,8 @@
       <c r="L175" s="4">
         <v>24</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.5449999999999999</v>
+      <c r="M175" s="6">
+        <v>1545</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7939,8 +7953,8 @@
       <c r="L176" s="4">
         <v>26</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.5629999999999999</v>
+      <c r="M176" s="6">
+        <v>1563</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7978,8 +7992,8 @@
       <c r="L177" s="4">
         <v>30</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.4039999999999999</v>
+      <c r="M177" s="6">
+        <v>1404</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8019,8 +8033,8 @@
       <c r="L178" s="4">
         <v>42</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.29</v>
+      <c r="M178" s="6">
+        <v>1290</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8058,8 +8072,8 @@
       <c r="L179" s="4">
         <v>17</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.288</v>
+      <c r="M179" s="6">
+        <v>1288</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8099,8 +8113,8 @@
       <c r="L180" s="4">
         <v>24</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.095</v>
+      <c r="M180" s="6">
+        <v>1095</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8138,8 +8152,8 @@
       <c r="L181" s="4">
         <v>27</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M181" s="6">
+        <v>1096</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8179,7 +8193,7 @@
       <c r="L182" s="4">
         <v>18</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>948</v>
       </c>
     </row>
@@ -8218,7 +8232,7 @@
       <c r="L183" s="4">
         <v>18</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>997</v>
       </c>
     </row>
@@ -8259,8 +8273,8 @@
       <c r="L184" s="4">
         <v>20</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.1870000000000001</v>
+      <c r="M184" s="6">
+        <v>1187</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8298,54 +8312,54 @@
       <c r="L185" s="4">
         <v>28</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.5640000000000001</v>
+      <c r="M185" s="6">
+        <v>1564</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="E186" s="5">
-        <v>8.7620000000000005</v>
-      </c>
-      <c r="F186" s="5">
-        <v>3.0840000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="H186" s="5">
-        <v>9.0440000000000005</v>
-      </c>
-      <c r="I186" s="5">
-        <v>4.8929999999999998</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>1902</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1368</v>
+      </c>
+      <c r="E186" s="6">
+        <v>8762</v>
+      </c>
+      <c r="F186" s="6">
+        <v>3084</v>
+      </c>
+      <c r="G186" s="6">
+        <v>5055</v>
+      </c>
+      <c r="H186" s="6">
+        <v>9044</v>
+      </c>
+      <c r="I186" s="6">
+        <v>4893</v>
+      </c>
+      <c r="J186" s="8">
         <v>414</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>21</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>510</v>
       </c>
-      <c r="M186" s="5">
-        <v>35.052999999999997</v>
+      <c r="M186" s="6">
+        <v>35053</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8417,7 +8431,7 @@
       <c r="L188" s="4">
         <v>8</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>589</v>
       </c>
     </row>
@@ -8456,7 +8470,7 @@
       <c r="L189" s="4">
         <v>4</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>494</v>
       </c>
     </row>
@@ -8497,7 +8511,7 @@
       <c r="L190" s="4">
         <v>5</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>412</v>
       </c>
     </row>
@@ -8536,7 +8550,7 @@
       <c r="L191" s="4">
         <v>7</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>324</v>
       </c>
     </row>
@@ -8577,7 +8591,7 @@
       <c r="L192" s="4">
         <v>2</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>441</v>
       </c>
     </row>
@@ -8616,7 +8630,7 @@
       <c r="L193" s="4">
         <v>4</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>312</v>
       </c>
     </row>
@@ -8657,7 +8671,7 @@
       <c r="L194" s="4">
         <v>9</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>397</v>
       </c>
     </row>
@@ -8696,7 +8710,7 @@
       <c r="L195" s="4">
         <v>6</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>315</v>
       </c>
     </row>
@@ -8737,7 +8751,7 @@
       <c r="L196" s="4">
         <v>11</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>395</v>
       </c>
     </row>
@@ -8776,7 +8790,7 @@
       <c r="L197" s="4">
         <v>5</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>347</v>
       </c>
     </row>
@@ -8817,7 +8831,7 @@
       <c r="L198" s="4">
         <v>13</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>336</v>
       </c>
     </row>
@@ -8856,7 +8870,7 @@
       <c r="L199" s="4">
         <v>14</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>348</v>
       </c>
     </row>
@@ -8897,7 +8911,7 @@
       <c r="L200" s="4">
         <v>17</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>361</v>
       </c>
     </row>
@@ -8936,7 +8950,7 @@
       <c r="L201" s="4">
         <v>16</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>334</v>
       </c>
     </row>
@@ -8977,7 +8991,7 @@
       <c r="L202" s="4">
         <v>33</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>341</v>
       </c>
     </row>
@@ -9016,7 +9030,7 @@
       <c r="L203" s="4">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>334</v>
       </c>
     </row>
@@ -9057,7 +9071,7 @@
       <c r="L204" s="4">
         <v>27</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>326</v>
       </c>
     </row>
@@ -9096,7 +9110,7 @@
       <c r="L205" s="4">
         <v>20</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>322</v>
       </c>
     </row>
@@ -9137,7 +9151,7 @@
       <c r="L206" s="4">
         <v>25</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>326</v>
       </c>
     </row>
@@ -9176,7 +9190,7 @@
       <c r="L207" s="4">
         <v>9</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>310</v>
       </c>
     </row>
@@ -9217,7 +9231,7 @@
       <c r="L208" s="4">
         <v>9</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>247</v>
       </c>
     </row>
@@ -9256,7 +9270,7 @@
       <c r="L209" s="4">
         <v>9</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>270</v>
       </c>
     </row>
@@ -9297,7 +9311,7 @@
       <c r="L210" s="4">
         <v>9</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>330</v>
       </c>
     </row>
@@ -9336,7 +9350,7 @@
       <c r="L211" s="4">
         <v>3</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>368</v>
       </c>
     </row>
@@ -9344,46 +9358,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>536</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>917</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.9570000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="E212" s="6">
+        <v>1957</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1037</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1257</v>
+      </c>
+      <c r="H212" s="6">
+        <v>1695</v>
+      </c>
+      <c r="I212" s="8">
         <v>810</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>80</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>10</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>280</v>
       </c>
-      <c r="M212" s="5">
-        <v>8.5790000000000006</v>
+      <c r="M212" s="6">
+        <v>8579</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9437,14 +9451,14 @@
       <c r="F214" s="4">
         <v>4</v>
       </c>
-      <c r="G214" s="4">
-        <v>6.032</v>
-      </c>
-      <c r="H214" s="4">
-        <v>14.808999999999999</v>
-      </c>
-      <c r="I214" s="4">
-        <v>2.504</v>
+      <c r="G214" s="5">
+        <v>6032</v>
+      </c>
+      <c r="H214" s="5">
+        <v>14809</v>
+      </c>
+      <c r="I214" s="5">
+        <v>2504</v>
       </c>
       <c r="J214" s="4">
         <v>25</v>
@@ -9455,8 +9469,8 @@
       <c r="L214" s="4">
         <v>262</v>
       </c>
-      <c r="M214" s="5">
-        <v>23.766999999999999</v>
+      <c r="M214" s="6">
+        <v>23767</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9476,14 +9490,14 @@
       <c r="F215" s="4">
         <v>1</v>
       </c>
-      <c r="G215" s="4">
-        <v>4.8179999999999996</v>
-      </c>
-      <c r="H215" s="4">
-        <v>14.324</v>
-      </c>
-      <c r="I215" s="4">
-        <v>3.8149999999999999</v>
+      <c r="G215" s="5">
+        <v>4818</v>
+      </c>
+      <c r="H215" s="5">
+        <v>14324</v>
+      </c>
+      <c r="I215" s="5">
+        <v>3815</v>
       </c>
       <c r="J215" s="4">
         <v>47</v>
@@ -9494,8 +9508,8 @@
       <c r="L215" s="4">
         <v>88</v>
       </c>
-      <c r="M215" s="5">
-        <v>23.298999999999999</v>
+      <c r="M215" s="6">
+        <v>23299</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9517,14 +9531,14 @@
       <c r="F216" s="4">
         <v>144</v>
       </c>
-      <c r="G216" s="4">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="H216" s="4">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="I216" s="4">
-        <v>5.8760000000000003</v>
+      <c r="G216" s="5">
+        <v>3325</v>
+      </c>
+      <c r="H216" s="5">
+        <v>4783</v>
+      </c>
+      <c r="I216" s="5">
+        <v>5876</v>
       </c>
       <c r="J216" s="4">
         <v>518</v>
@@ -9535,8 +9549,8 @@
       <c r="L216" s="4">
         <v>116</v>
       </c>
-      <c r="M216" s="5">
-        <v>14.923999999999999</v>
+      <c r="M216" s="6">
+        <v>14924</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9556,14 +9570,14 @@
       <c r="F217" s="4">
         <v>210</v>
       </c>
-      <c r="G217" s="4">
-        <v>3.8039999999999998</v>
-      </c>
-      <c r="H217" s="4">
-        <v>3.6059999999999999</v>
-      </c>
-      <c r="I217" s="4">
-        <v>6.7519999999999998</v>
+      <c r="G217" s="5">
+        <v>3804</v>
+      </c>
+      <c r="H217" s="5">
+        <v>3606</v>
+      </c>
+      <c r="I217" s="5">
+        <v>6752</v>
       </c>
       <c r="J217" s="4">
         <v>697</v>
@@ -9574,8 +9588,8 @@
       <c r="L217" s="4">
         <v>130</v>
       </c>
-      <c r="M217" s="5">
-        <v>15.757999999999999</v>
+      <c r="M217" s="6">
+        <v>15758</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9594,17 +9608,17 @@
       <c r="E218" s="4">
         <v>70</v>
       </c>
-      <c r="F218" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G218" s="4">
-        <v>1.589</v>
-      </c>
-      <c r="H218" s="4">
-        <v>4.3869999999999996</v>
-      </c>
-      <c r="I218" s="4">
-        <v>5.89</v>
+      <c r="F218" s="5">
+        <v>2050</v>
+      </c>
+      <c r="G218" s="5">
+        <v>1589</v>
+      </c>
+      <c r="H218" s="5">
+        <v>4387</v>
+      </c>
+      <c r="I218" s="5">
+        <v>5890</v>
       </c>
       <c r="J218" s="4">
         <v>881</v>
@@ -9615,8 +9629,8 @@
       <c r="L218" s="4">
         <v>115</v>
       </c>
-      <c r="M218" s="5">
-        <v>15.122999999999999</v>
+      <c r="M218" s="6">
+        <v>15123</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9633,17 +9647,17 @@
       <c r="E219" s="4">
         <v>394</v>
       </c>
-      <c r="F219" s="4">
-        <v>3.327</v>
-      </c>
-      <c r="G219" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="H219" s="4">
-        <v>3.5329999999999999</v>
-      </c>
-      <c r="I219" s="4">
-        <v>5.4580000000000002</v>
+      <c r="F219" s="5">
+        <v>3327</v>
+      </c>
+      <c r="G219" s="5">
+        <v>1513</v>
+      </c>
+      <c r="H219" s="5">
+        <v>3533</v>
+      </c>
+      <c r="I219" s="5">
+        <v>5458</v>
       </c>
       <c r="J219" s="4">
         <v>831</v>
@@ -9654,8 +9668,8 @@
       <c r="L219" s="4">
         <v>149</v>
       </c>
-      <c r="M219" s="5">
-        <v>15.657</v>
+      <c r="M219" s="6">
+        <v>15657</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9674,17 +9688,17 @@
       <c r="E220" s="4">
         <v>773</v>
       </c>
-      <c r="F220" s="4">
-        <v>2.669</v>
-      </c>
-      <c r="G220" s="4">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="H220" s="4">
-        <v>5.0880000000000001</v>
-      </c>
-      <c r="I220" s="4">
-        <v>5.0259999999999998</v>
+      <c r="F220" s="5">
+        <v>2669</v>
+      </c>
+      <c r="G220" s="5">
+        <v>1277</v>
+      </c>
+      <c r="H220" s="5">
+        <v>5088</v>
+      </c>
+      <c r="I220" s="5">
+        <v>5026</v>
       </c>
       <c r="J220" s="4">
         <v>963</v>
@@ -9695,8 +9709,8 @@
       <c r="L220" s="4">
         <v>149</v>
       </c>
-      <c r="M220" s="5">
-        <v>16.117000000000001</v>
+      <c r="M220" s="6">
+        <v>16117</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9710,20 +9724,20 @@
       <c r="D221" s="4">
         <v>185</v>
       </c>
-      <c r="E221" s="4">
-        <v>2.996</v>
-      </c>
-      <c r="F221" s="4">
-        <v>2.7679999999999998</v>
-      </c>
-      <c r="G221" s="4">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="H221" s="4">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="I221" s="4">
-        <v>3.86</v>
+      <c r="E221" s="5">
+        <v>2996</v>
+      </c>
+      <c r="F221" s="5">
+        <v>2768</v>
+      </c>
+      <c r="G221" s="5">
+        <v>1551</v>
+      </c>
+      <c r="H221" s="5">
+        <v>3723</v>
+      </c>
+      <c r="I221" s="5">
+        <v>3860</v>
       </c>
       <c r="J221" s="4">
         <v>632</v>
@@ -9734,8 +9748,8 @@
       <c r="L221" s="4">
         <v>161</v>
       </c>
-      <c r="M221" s="5">
-        <v>16.068999999999999</v>
+      <c r="M221" s="6">
+        <v>16069</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9751,20 +9765,20 @@
       <c r="D222" s="4">
         <v>26</v>
       </c>
-      <c r="E222" s="4">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="F222" s="4">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="G222" s="4">
-        <v>2.3919999999999999</v>
-      </c>
-      <c r="H222" s="4">
-        <v>5.1319999999999997</v>
-      </c>
-      <c r="I222" s="4">
-        <v>4.1500000000000004</v>
+      <c r="E222" s="5">
+        <v>1505</v>
+      </c>
+      <c r="F222" s="5">
+        <v>2289</v>
+      </c>
+      <c r="G222" s="5">
+        <v>2392</v>
+      </c>
+      <c r="H222" s="5">
+        <v>5132</v>
+      </c>
+      <c r="I222" s="5">
+        <v>4150</v>
       </c>
       <c r="J222" s="4">
         <v>994</v>
@@ -9775,8 +9789,8 @@
       <c r="L222" s="4">
         <v>126</v>
       </c>
-      <c r="M222" s="5">
-        <v>16.783000000000001</v>
+      <c r="M222" s="6">
+        <v>16783</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9790,20 +9804,20 @@
       <c r="D223" s="4">
         <v>194</v>
       </c>
-      <c r="E223" s="4">
-        <v>4.4020000000000001</v>
-      </c>
-      <c r="F223" s="4">
-        <v>1.744</v>
-      </c>
-      <c r="G223" s="4">
-        <v>2.3180000000000001</v>
-      </c>
-      <c r="H223" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="I223" s="4">
-        <v>2.8969999999999998</v>
+      <c r="E223" s="5">
+        <v>4402</v>
+      </c>
+      <c r="F223" s="5">
+        <v>1744</v>
+      </c>
+      <c r="G223" s="5">
+        <v>2318</v>
+      </c>
+      <c r="H223" s="5">
+        <v>3480</v>
+      </c>
+      <c r="I223" s="5">
+        <v>2897</v>
       </c>
       <c r="J223" s="4">
         <v>541</v>
@@ -9814,8 +9828,8 @@
       <c r="L223" s="4">
         <v>104</v>
       </c>
-      <c r="M223" s="5">
-        <v>15.911</v>
+      <c r="M223" s="6">
+        <v>15911</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9831,20 +9845,20 @@
       <c r="D224" s="4">
         <v>32</v>
       </c>
-      <c r="E224" s="4">
-        <v>1.605</v>
-      </c>
-      <c r="F224" s="4">
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="G224" s="4">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="H224" s="4">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="I224" s="4">
-        <v>3.1059999999999999</v>
+      <c r="E224" s="5">
+        <v>1605</v>
+      </c>
+      <c r="F224" s="5">
+        <v>2215</v>
+      </c>
+      <c r="G224" s="5">
+        <v>2099</v>
+      </c>
+      <c r="H224" s="5">
+        <v>3838</v>
+      </c>
+      <c r="I224" s="5">
+        <v>3106</v>
       </c>
       <c r="J224" s="4">
         <v>662</v>
@@ -9855,8 +9869,8 @@
       <c r="L224" s="4">
         <v>121</v>
       </c>
-      <c r="M224" s="5">
-        <v>13.821</v>
+      <c r="M224" s="6">
+        <v>13821</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9870,20 +9884,20 @@
       <c r="D225" s="4">
         <v>234</v>
       </c>
-      <c r="E225" s="4">
-        <v>4.1349999999999998</v>
-      </c>
-      <c r="F225" s="4">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="G225" s="4">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="H225" s="4">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="I225" s="4">
-        <v>1.6319999999999999</v>
+      <c r="E225" s="5">
+        <v>4135</v>
+      </c>
+      <c r="F225" s="5">
+        <v>1596</v>
+      </c>
+      <c r="G225" s="5">
+        <v>1876</v>
+      </c>
+      <c r="H225" s="5">
+        <v>2292</v>
+      </c>
+      <c r="I225" s="5">
+        <v>1632</v>
       </c>
       <c r="J225" s="4">
         <v>222</v>
@@ -9894,8 +9908,8 @@
       <c r="L225" s="4">
         <v>105</v>
       </c>
-      <c r="M225" s="5">
-        <v>12.355</v>
+      <c r="M225" s="6">
+        <v>12355</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9911,20 +9925,20 @@
       <c r="D226" s="4">
         <v>33</v>
       </c>
-      <c r="E226" s="4">
-        <v>1.637</v>
-      </c>
-      <c r="F226" s="4">
-        <v>2.214</v>
-      </c>
-      <c r="G226" s="4">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="H226" s="4">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="I226" s="4">
-        <v>2.472</v>
+      <c r="E226" s="5">
+        <v>1637</v>
+      </c>
+      <c r="F226" s="5">
+        <v>2214</v>
+      </c>
+      <c r="G226" s="5">
+        <v>2017</v>
+      </c>
+      <c r="H226" s="5">
+        <v>2311</v>
+      </c>
+      <c r="I226" s="5">
+        <v>2472</v>
       </c>
       <c r="J226" s="4">
         <v>377</v>
@@ -9935,8 +9949,8 @@
       <c r="L226" s="4">
         <v>70</v>
       </c>
-      <c r="M226" s="5">
-        <v>11.311</v>
+      <c r="M226" s="6">
+        <v>11311</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9950,17 +9964,17 @@
       <c r="D227" s="4">
         <v>498</v>
       </c>
-      <c r="E227" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="F227" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="G227" s="4">
-        <v>1.593</v>
-      </c>
-      <c r="H227" s="4">
-        <v>1.5289999999999999</v>
+      <c r="E227" s="5">
+        <v>4120</v>
+      </c>
+      <c r="F227" s="5">
+        <v>1362</v>
+      </c>
+      <c r="G227" s="5">
+        <v>1593</v>
+      </c>
+      <c r="H227" s="5">
+        <v>1529</v>
       </c>
       <c r="I227" s="4">
         <v>827</v>
@@ -9974,8 +9988,8 @@
       <c r="L227" s="4">
         <v>96</v>
       </c>
-      <c r="M227" s="5">
-        <v>10.55</v>
+      <c r="M227" s="6">
+        <v>10550</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9991,20 +10005,20 @@
       <c r="D228" s="4">
         <v>47</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.909</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1.607</v>
-      </c>
-      <c r="G228" s="4">
-        <v>1.706</v>
-      </c>
-      <c r="H228" s="4">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="I228" s="4">
-        <v>1.3859999999999999</v>
+      <c r="E228" s="5">
+        <v>1909</v>
+      </c>
+      <c r="F228" s="5">
+        <v>1607</v>
+      </c>
+      <c r="G228" s="5">
+        <v>1706</v>
+      </c>
+      <c r="H228" s="5">
+        <v>1882</v>
+      </c>
+      <c r="I228" s="5">
+        <v>1386</v>
       </c>
       <c r="J228" s="4">
         <v>215</v>
@@ -10015,8 +10029,8 @@
       <c r="L228" s="4">
         <v>81</v>
       </c>
-      <c r="M228" s="5">
-        <v>8.9860000000000007</v>
+      <c r="M228" s="6">
+        <v>8986</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10030,8 +10044,8 @@
       <c r="D229" s="4">
         <v>712</v>
       </c>
-      <c r="E229" s="4">
-        <v>3.7</v>
+      <c r="E229" s="5">
+        <v>3700</v>
       </c>
       <c r="F229" s="4">
         <v>701</v>
@@ -10039,8 +10053,8 @@
       <c r="G229" s="4">
         <v>997</v>
       </c>
-      <c r="H229" s="4">
-        <v>1.008</v>
+      <c r="H229" s="5">
+        <v>1008</v>
       </c>
       <c r="I229" s="4">
         <v>448</v>
@@ -10054,8 +10068,8 @@
       <c r="L229" s="4">
         <v>106</v>
       </c>
-      <c r="M229" s="5">
-        <v>8.375</v>
+      <c r="M229" s="6">
+        <v>8375</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10071,20 +10085,20 @@
       <c r="D230" s="4">
         <v>99</v>
       </c>
-      <c r="E230" s="4">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="F230" s="4">
-        <v>1.103</v>
-      </c>
-      <c r="G230" s="4">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="H230" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="I230" s="4">
-        <v>1.004</v>
+      <c r="E230" s="5">
+        <v>2405</v>
+      </c>
+      <c r="F230" s="5">
+        <v>1103</v>
+      </c>
+      <c r="G230" s="5">
+        <v>1219</v>
+      </c>
+      <c r="H230" s="5">
+        <v>1497</v>
+      </c>
+      <c r="I230" s="5">
+        <v>1004</v>
       </c>
       <c r="J230" s="4">
         <v>99</v>
@@ -10095,8 +10109,8 @@
       <c r="L230" s="4">
         <v>78</v>
       </c>
-      <c r="M230" s="5">
-        <v>7.62</v>
+      <c r="M230" s="6">
+        <v>7620</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10104,14 +10118,14 @@
       <c r="B231" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="4">
-        <v>1.014</v>
+      <c r="C231" s="5">
+        <v>1014</v>
       </c>
       <c r="D231" s="4">
         <v>972</v>
       </c>
-      <c r="E231" s="4">
-        <v>2.9740000000000002</v>
+      <c r="E231" s="5">
+        <v>2974</v>
       </c>
       <c r="F231" s="4">
         <v>358</v>
@@ -10134,8 +10148,8 @@
       <c r="L231" s="4">
         <v>78</v>
       </c>
-      <c r="M231" s="5">
-        <v>6.9909999999999997</v>
+      <c r="M231" s="6">
+        <v>6991</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10151,8 +10165,8 @@
       <c r="D232" s="4">
         <v>213</v>
       </c>
-      <c r="E232" s="4">
-        <v>2.206</v>
+      <c r="E232" s="5">
+        <v>2206</v>
       </c>
       <c r="F232" s="4">
         <v>494</v>
@@ -10175,8 +10189,8 @@
       <c r="L232" s="4">
         <v>65</v>
       </c>
-      <c r="M232" s="5">
-        <v>5.6870000000000003</v>
+      <c r="M232" s="6">
+        <v>5687</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10184,14 +10198,14 @@
       <c r="B233" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="4">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="D233" s="4">
-        <v>1.022</v>
-      </c>
-      <c r="E233" s="4">
-        <v>1.9330000000000001</v>
+      <c r="C233" s="5">
+        <v>1485</v>
+      </c>
+      <c r="D233" s="5">
+        <v>1022</v>
+      </c>
+      <c r="E233" s="5">
+        <v>1933</v>
       </c>
       <c r="F233" s="4">
         <v>111</v>
@@ -10214,8 +10228,8 @@
       <c r="L233" s="4">
         <v>67</v>
       </c>
-      <c r="M233" s="5">
-        <v>5.5449999999999999</v>
+      <c r="M233" s="6">
+        <v>5545</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10231,8 +10245,8 @@
       <c r="D234" s="4">
         <v>337</v>
       </c>
-      <c r="E234" s="4">
-        <v>1.782</v>
+      <c r="E234" s="5">
+        <v>1782</v>
       </c>
       <c r="F234" s="4">
         <v>175</v>
@@ -10255,8 +10269,8 @@
       <c r="L234" s="4">
         <v>42</v>
       </c>
-      <c r="M234" s="5">
-        <v>3.7269999999999999</v>
+      <c r="M234" s="6">
+        <v>3727</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10264,8 +10278,8 @@
       <c r="B235" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="4">
-        <v>1.623</v>
+      <c r="C235" s="5">
+        <v>1623</v>
       </c>
       <c r="D235" s="4">
         <v>839</v>
@@ -10294,8 +10308,8 @@
       <c r="L235" s="4">
         <v>52</v>
       </c>
-      <c r="M235" s="5">
-        <v>3.9329999999999998</v>
+      <c r="M235" s="6">
+        <v>3933</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10311,8 +10325,8 @@
       <c r="D236" s="4">
         <v>874</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.8740000000000001</v>
+      <c r="E236" s="5">
+        <v>1874</v>
       </c>
       <c r="F236" s="4">
         <v>64</v>
@@ -10335,8 +10349,8 @@
       <c r="L236" s="4">
         <v>58</v>
       </c>
-      <c r="M236" s="5">
-        <v>4.2960000000000003</v>
+      <c r="M236" s="6">
+        <v>4296</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10344,11 +10358,11 @@
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="4">
-        <v>3.169</v>
-      </c>
-      <c r="D237" s="4">
-        <v>1.0309999999999999</v>
+      <c r="C237" s="5">
+        <v>3169</v>
+      </c>
+      <c r="D237" s="5">
+        <v>1031</v>
       </c>
       <c r="E237" s="4">
         <v>736</v>
@@ -10374,54 +10388,54 @@
       <c r="L237" s="4">
         <v>93</v>
       </c>
-      <c r="M237" s="5">
-        <v>5.2990000000000004</v>
+      <c r="M237" s="6">
+        <v>5299</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>10.143000000000001</v>
-      </c>
-      <c r="D238" s="5">
-        <v>8.14</v>
-      </c>
-      <c r="E238" s="5">
-        <v>42.808</v>
-      </c>
-      <c r="F238" s="5">
-        <v>27.245000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>42.466999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>79.918000000000006</v>
-      </c>
-      <c r="I238" s="5">
-        <v>59.57</v>
-      </c>
-      <c r="J238" s="5">
-        <v>7.9729999999999999</v>
-      </c>
-      <c r="K238" s="5">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="L238" s="5">
-        <v>2.512</v>
-      </c>
-      <c r="M238" s="5">
-        <v>281.904</v>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>10143</v>
+      </c>
+      <c r="D238" s="6">
+        <v>8140</v>
+      </c>
+      <c r="E238" s="6">
+        <v>42808</v>
+      </c>
+      <c r="F238" s="6">
+        <v>27245</v>
+      </c>
+      <c r="G238" s="6">
+        <v>42467</v>
+      </c>
+      <c r="H238" s="6">
+        <v>79918</v>
+      </c>
+      <c r="I238" s="6">
+        <v>59570</v>
+      </c>
+      <c r="J238" s="6">
+        <v>7973</v>
+      </c>
+      <c r="K238" s="6">
+        <v>1128</v>
+      </c>
+      <c r="L238" s="6">
+        <v>2512</v>
+      </c>
+      <c r="M238" s="6">
+        <v>281904</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10475,11 +10489,11 @@
       <c r="F240" s="4">
         <v>3</v>
       </c>
-      <c r="G240" s="4">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="H240" s="4">
-        <v>1.9870000000000001</v>
+      <c r="G240" s="5">
+        <v>1388</v>
+      </c>
+      <c r="H240" s="5">
+        <v>1987</v>
       </c>
       <c r="I240" s="4">
         <v>249</v>
@@ -10493,8 +10507,8 @@
       <c r="L240" s="4">
         <v>65</v>
       </c>
-      <c r="M240" s="5">
-        <v>3.806</v>
+      <c r="M240" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10514,11 +10528,11 @@
       <c r="F241" s="4">
         <v>1</v>
       </c>
-      <c r="G241" s="4">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="H241" s="4">
-        <v>1.948</v>
+      <c r="G241" s="5">
+        <v>1148</v>
+      </c>
+      <c r="H241" s="5">
+        <v>1948</v>
       </c>
       <c r="I241" s="4">
         <v>438</v>
@@ -10532,8 +10546,8 @@
       <c r="L241" s="4">
         <v>22</v>
       </c>
-      <c r="M241" s="5">
-        <v>3.6880000000000002</v>
+      <c r="M241" s="6">
+        <v>3688</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10573,8 +10587,8 @@
       <c r="L242" s="4">
         <v>16</v>
       </c>
-      <c r="M242" s="5">
-        <v>2.266</v>
+      <c r="M242" s="6">
+        <v>2266</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10612,8 +10626,8 @@
       <c r="L243" s="4">
         <v>15</v>
       </c>
-      <c r="M243" s="5">
-        <v>2.169</v>
+      <c r="M243" s="6">
+        <v>2169</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10653,8 +10667,8 @@
       <c r="L244" s="4">
         <v>18</v>
       </c>
-      <c r="M244" s="5">
-        <v>2.1469999999999998</v>
+      <c r="M244" s="6">
+        <v>2147</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10692,8 +10706,8 @@
       <c r="L245" s="4">
         <v>24</v>
       </c>
-      <c r="M245" s="5">
-        <v>2.0489999999999999</v>
+      <c r="M245" s="6">
+        <v>2049</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10733,8 +10747,8 @@
       <c r="L246" s="4">
         <v>61</v>
       </c>
-      <c r="M246" s="5">
-        <v>2.4249999999999998</v>
+      <c r="M246" s="6">
+        <v>2425</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10772,8 +10786,8 @@
       <c r="L247" s="4">
         <v>39</v>
       </c>
-      <c r="M247" s="5">
-        <v>2.1219999999999999</v>
+      <c r="M247" s="6">
+        <v>2122</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10813,8 +10827,8 @@
       <c r="L248" s="4">
         <v>55</v>
       </c>
-      <c r="M248" s="5">
-        <v>2.266</v>
+      <c r="M248" s="6">
+        <v>2266</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10828,8 +10842,8 @@
       <c r="D249" s="4">
         <v>86</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E249" s="5">
+        <v>1023</v>
       </c>
       <c r="F249" s="4">
         <v>218</v>
@@ -10852,8 +10866,8 @@
       <c r="L249" s="4">
         <v>40</v>
       </c>
-      <c r="M249" s="5">
-        <v>2.1469999999999998</v>
+      <c r="M249" s="6">
+        <v>2147</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10893,8 +10907,8 @@
       <c r="L250" s="4">
         <v>73</v>
       </c>
-      <c r="M250" s="5">
-        <v>2.077</v>
+      <c r="M250" s="6">
+        <v>2077</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10908,8 +10922,8 @@
       <c r="D251" s="4">
         <v>99</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.153</v>
+      <c r="E251" s="5">
+        <v>1153</v>
       </c>
       <c r="F251" s="4">
         <v>162</v>
@@ -10932,8 +10946,8 @@
       <c r="L251" s="4">
         <v>46</v>
       </c>
-      <c r="M251" s="5">
-        <v>2.0830000000000002</v>
+      <c r="M251" s="6">
+        <v>2083</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10973,8 +10987,8 @@
       <c r="L252" s="4">
         <v>80</v>
       </c>
-      <c r="M252" s="5">
-        <v>1.8480000000000001</v>
+      <c r="M252" s="6">
+        <v>1848</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11012,8 +11026,8 @@
       <c r="L253" s="4">
         <v>65</v>
       </c>
-      <c r="M253" s="5">
-        <v>1.81</v>
+      <c r="M253" s="6">
+        <v>1810</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11053,8 +11067,8 @@
       <c r="L254" s="4">
         <v>83</v>
       </c>
-      <c r="M254" s="5">
-        <v>1.63</v>
+      <c r="M254" s="6">
+        <v>1630</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11092,8 +11106,8 @@
       <c r="L255" s="4">
         <v>64</v>
       </c>
-      <c r="M255" s="5">
-        <v>1.7070000000000001</v>
+      <c r="M255" s="6">
+        <v>1707</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11133,8 +11147,8 @@
       <c r="L256" s="4">
         <v>65</v>
       </c>
-      <c r="M256" s="5">
-        <v>1.327</v>
+      <c r="M256" s="6">
+        <v>1327</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11172,8 +11186,8 @@
       <c r="L257" s="4">
         <v>66</v>
       </c>
-      <c r="M257" s="5">
-        <v>1.351</v>
+      <c r="M257" s="6">
+        <v>1351</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11213,8 +11227,8 @@
       <c r="L258" s="4">
         <v>67</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.2649999999999999</v>
+      <c r="M258" s="6">
+        <v>1265</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11252,8 +11266,8 @@
       <c r="L259" s="4">
         <v>73</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.3220000000000001</v>
+      <c r="M259" s="6">
+        <v>1322</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11293,8 +11307,8 @@
       <c r="L260" s="4">
         <v>65</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.022</v>
+      <c r="M260" s="6">
+        <v>1022</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11332,8 +11346,8 @@
       <c r="L261" s="4">
         <v>46</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.0860000000000001</v>
+      <c r="M261" s="6">
+        <v>1086</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11373,8 +11387,8 @@
       <c r="L262" s="4">
         <v>49</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.452</v>
+      <c r="M262" s="6">
+        <v>1452</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11382,8 +11396,8 @@
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="4">
-        <v>1.462</v>
+      <c r="C263" s="5">
+        <v>1462</v>
       </c>
       <c r="D263" s="4">
         <v>242</v>
@@ -11412,54 +11426,54 @@
       <c r="L263" s="4">
         <v>50</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.9359999999999999</v>
+      <c r="M263" s="6">
+        <v>1936</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>4.32</v>
-      </c>
-      <c r="D264" s="5">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="E264" s="5">
-        <v>11.874000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>4.6020000000000003</v>
-      </c>
-      <c r="G264" s="5">
-        <v>7.9379999999999997</v>
-      </c>
-      <c r="H264" s="5">
-        <v>9.4339999999999993</v>
-      </c>
-      <c r="I264" s="5">
-        <v>4.3970000000000002</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D264" s="6">
+        <v>2744</v>
+      </c>
+      <c r="E264" s="6">
+        <v>11874</v>
+      </c>
+      <c r="F264" s="6">
+        <v>4602</v>
+      </c>
+      <c r="G264" s="6">
+        <v>7938</v>
+      </c>
+      <c r="H264" s="6">
+        <v>9434</v>
+      </c>
+      <c r="I264" s="6">
+        <v>4397</v>
+      </c>
+      <c r="J264" s="8">
         <v>424</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>21</v>
       </c>
-      <c r="L264" s="5">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="M264" s="5">
-        <v>47.000999999999998</v>
+      <c r="L264" s="6">
+        <v>1247</v>
+      </c>
+      <c r="M264" s="6">
+        <v>47001</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11513,11 +11527,11 @@
       <c r="F266" s="4">
         <v>4</v>
       </c>
-      <c r="G266" s="4">
-        <v>1.542</v>
-      </c>
-      <c r="H266" s="4">
-        <v>2.5259999999999998</v>
+      <c r="G266" s="5">
+        <v>1542</v>
+      </c>
+      <c r="H266" s="5">
+        <v>2526</v>
       </c>
       <c r="I266" s="4">
         <v>355</v>
@@ -11531,8 +11545,8 @@
       <c r="L266" s="4">
         <v>45</v>
       </c>
-      <c r="M266" s="5">
-        <v>4.5229999999999997</v>
+      <c r="M266" s="6">
+        <v>4523</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11552,11 +11566,11 @@
       <c r="F267" s="4">
         <v>2</v>
       </c>
-      <c r="G267" s="4">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="H267" s="4">
-        <v>2.3820000000000001</v>
+      <c r="G267" s="5">
+        <v>1368</v>
+      </c>
+      <c r="H267" s="5">
+        <v>2382</v>
       </c>
       <c r="I267" s="4">
         <v>587</v>
@@ -11570,8 +11584,8 @@
       <c r="L267" s="4">
         <v>11</v>
       </c>
-      <c r="M267" s="5">
-        <v>4.3970000000000002</v>
+      <c r="M267" s="6">
+        <v>4397</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11611,8 +11625,8 @@
       <c r="L268" s="4">
         <v>13</v>
       </c>
-      <c r="M268" s="5">
-        <v>2.4020000000000001</v>
+      <c r="M268" s="6">
+        <v>2402</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11650,8 +11664,8 @@
       <c r="L269" s="4">
         <v>14</v>
       </c>
-      <c r="M269" s="5">
-        <v>2.4910000000000001</v>
+      <c r="M269" s="6">
+        <v>2491</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11691,8 +11705,8 @@
       <c r="L270" s="4">
         <v>10</v>
       </c>
-      <c r="M270" s="5">
-        <v>2.4580000000000002</v>
+      <c r="M270" s="6">
+        <v>2458</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11730,8 +11744,8 @@
       <c r="L271" s="4">
         <v>15</v>
       </c>
-      <c r="M271" s="5">
-        <v>2.2269999999999999</v>
+      <c r="M271" s="6">
+        <v>2227</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11771,8 +11785,8 @@
       <c r="L272" s="4">
         <v>24</v>
       </c>
-      <c r="M272" s="5">
-        <v>2.556</v>
+      <c r="M272" s="6">
+        <v>2556</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11810,8 +11824,8 @@
       <c r="L273" s="4">
         <v>16</v>
       </c>
-      <c r="M273" s="5">
-        <v>2.2999999999999998</v>
+      <c r="M273" s="6">
+        <v>2300</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11851,8 +11865,8 @@
       <c r="L274" s="4">
         <v>20</v>
       </c>
-      <c r="M274" s="5">
-        <v>2.4369999999999998</v>
+      <c r="M274" s="6">
+        <v>2437</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11866,8 +11880,8 @@
       <c r="D275" s="4">
         <v>44</v>
       </c>
-      <c r="E275" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E275" s="5">
+        <v>1059</v>
       </c>
       <c r="F275" s="4">
         <v>265</v>
@@ -11890,8 +11904,8 @@
       <c r="L275" s="4">
         <v>16</v>
       </c>
-      <c r="M275" s="5">
-        <v>2.1659999999999999</v>
+      <c r="M275" s="6">
+        <v>2166</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11931,8 +11945,8 @@
       <c r="L276" s="4">
         <v>22</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.1779999999999999</v>
+      <c r="M276" s="6">
+        <v>2178</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11946,8 +11960,8 @@
       <c r="D277" s="4">
         <v>58</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.042</v>
+      <c r="E277" s="5">
+        <v>1042</v>
       </c>
       <c r="F277" s="4">
         <v>202</v>
@@ -11970,8 +11984,8 @@
       <c r="L277" s="4">
         <v>19</v>
       </c>
-      <c r="M277" s="5">
-        <v>1.9179999999999999</v>
+      <c r="M277" s="6">
+        <v>1918</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12011,8 +12025,8 @@
       <c r="L278" s="4">
         <v>18</v>
       </c>
-      <c r="M278" s="5">
-        <v>1.9039999999999999</v>
+      <c r="M278" s="6">
+        <v>1904</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12026,8 +12040,8 @@
       <c r="D279" s="4">
         <v>117</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.0569999999999999</v>
+      <c r="E279" s="5">
+        <v>1057</v>
       </c>
       <c r="F279" s="4">
         <v>173</v>
@@ -12050,8 +12064,8 @@
       <c r="L279" s="4">
         <v>15</v>
       </c>
-      <c r="M279" s="5">
-        <v>1.8360000000000001</v>
+      <c r="M279" s="6">
+        <v>1836</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12091,8 +12105,8 @@
       <c r="L280" s="4">
         <v>25</v>
       </c>
-      <c r="M280" s="5">
-        <v>1.722</v>
+      <c r="M280" s="6">
+        <v>1722</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,8 +12144,8 @@
       <c r="L281" s="4">
         <v>31</v>
       </c>
-      <c r="M281" s="5">
-        <v>1.5840000000000001</v>
+      <c r="M281" s="6">
+        <v>1584</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12171,8 +12185,8 @@
       <c r="L282" s="4">
         <v>26</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.347</v>
+      <c r="M282" s="6">
+        <v>1347</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,8 +12224,8 @@
       <c r="L283" s="4">
         <v>22</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.2410000000000001</v>
+      <c r="M283" s="6">
+        <v>1241</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12251,8 +12265,8 @@
       <c r="L284" s="4">
         <v>22</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.1850000000000001</v>
+      <c r="M284" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12290,8 +12304,8 @@
       <c r="L285" s="4">
         <v>26</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.1040000000000001</v>
+      <c r="M285" s="6">
+        <v>1104</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12331,7 +12345,7 @@
       <c r="L286" s="4">
         <v>15</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="8">
         <v>664</v>
       </c>
     </row>
@@ -12370,7 +12384,7 @@
       <c r="L287" s="4">
         <v>10</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="8">
         <v>886</v>
       </c>
     </row>
@@ -12411,8 +12425,8 @@
       <c r="L288" s="4">
         <v>24</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.0389999999999999</v>
+      <c r="M288" s="6">
+        <v>1039</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12450,63 +12464,73 @@
       <c r="L289" s="4">
         <v>19</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.381</v>
+      <c r="M289" s="6">
+        <v>1381</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>2.448</v>
-      </c>
-      <c r="D290" s="5">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="E290" s="5">
-        <v>10.988</v>
-      </c>
-      <c r="F290" s="5">
-        <v>5.798</v>
-      </c>
-      <c r="G290" s="5">
-        <v>9.4320000000000004</v>
-      </c>
-      <c r="H290" s="5">
-        <v>11.9</v>
-      </c>
-      <c r="I290" s="5">
-        <v>4.593</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>2448</v>
+      </c>
+      <c r="D290" s="6">
+        <v>1953</v>
+      </c>
+      <c r="E290" s="6">
+        <v>10988</v>
+      </c>
+      <c r="F290" s="6">
+        <v>5798</v>
+      </c>
+      <c r="G290" s="6">
+        <v>9432</v>
+      </c>
+      <c r="H290" s="6">
+        <v>11900</v>
+      </c>
+      <c r="I290" s="6">
+        <v>4593</v>
+      </c>
+      <c r="J290" s="8">
         <v>332</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>24</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>478</v>
       </c>
-      <c r="M290" s="5">
-        <v>47.945999999999998</v>
+      <c r="M290" s="6">
+        <v>47946</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A265:B265"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
